--- a/private/games/steamGames.xlsx
+++ b/private/games/steamGames.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18030" windowHeight="7480"/>
+    <workbookView windowWidth="24220" windowHeight="13540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>目錄</t>
   </si>
@@ -26,19 +26,118 @@
     <t>價格</t>
   </si>
   <si>
+    <t>手柄</t>
+  </si>
+  <si>
+    <t>外設</t>
+  </si>
+  <si>
     <t>類型</t>
   </si>
   <si>
-    <t>手柄</t>
-  </si>
-  <si>
-    <t>外設</t>
+    <t>Car Mechanic Simulator 2018</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>Microsoft Flight Simulator X</t>
+  </si>
+  <si>
+    <t>飛行</t>
+  </si>
+  <si>
+    <t>Kerbal Space Program</t>
+  </si>
+  <si>
+    <t>太空</t>
+  </si>
+  <si>
+    <t>Kerbal Space Program 2</t>
+  </si>
+  <si>
+    <t>Hell Let Loose</t>
+  </si>
+  <si>
+    <t>戰爭</t>
+  </si>
+  <si>
+    <t>X-Plane 11</t>
+  </si>
+  <si>
+    <t>Sniper Elite 4</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>射擊</t>
+  </si>
+  <si>
+    <t>RIDE 4</t>
+  </si>
+  <si>
+    <t>摩托</t>
+  </si>
+  <si>
+    <t>ACE COMBAT™ 7: SKIES UNKNOWN</t>
+  </si>
+  <si>
+    <t>雙人成行</t>
+  </si>
+  <si>
+    <t>Counter-Strike: Global Offensive</t>
+  </si>
+  <si>
+    <t>War Thunder</t>
+  </si>
+  <si>
+    <t>$$</t>
   </si>
   <si>
     <t>DCS</t>
   </si>
   <si>
-    <t>WorldofGuns</t>
+    <t>World of Guns</t>
+  </si>
+  <si>
+    <t>Sniper Elite</t>
+  </si>
+  <si>
+    <t>全網公敵</t>
+  </si>
+  <si>
+    <t>aerofly RC 7</t>
+  </si>
+  <si>
+    <t>aerofly RC 8</t>
+  </si>
+  <si>
+    <t>X-Plane 10</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Total War: THREE KINGDOMS</t>
+  </si>
+  <si>
+    <t>策略</t>
+  </si>
+  <si>
+    <t>Assassin's Creed® Origins</t>
+  </si>
+  <si>
+    <t>Call of Duty®: Modern Warfare® Remastered</t>
+  </si>
+  <si>
+    <t>《文字遊戲》</t>
+  </si>
+  <si>
+    <t>兵法：战国篇</t>
+  </si>
+  <si>
+    <t>American Truck Simulator</t>
   </si>
   <si>
     <t>序号</t>
@@ -163,12 +262,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +286,112 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -198,7 +403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,44 +411,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,75 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -333,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,31 +448,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,97 +622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,61 +644,41 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,26 +693,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +736,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -633,10 +768,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,140 +800,146 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,48 +1259,390 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="8.72727272727273" style="3"/>
+    <col min="1" max="1" width="8.72727272727273" style="3"/>
+    <col min="2" max="2" width="34.2727272727273" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.72727272727273" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>78</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>158</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5">
+        <v>65.6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>99</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5">
+        <v>99</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5">
+        <v>169</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5">
+        <v>134</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5">
+        <v>298</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F25">
+    <sortCondition ref="D2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1160,7 +1654,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1174,19 +1668,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1194,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1202,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>139</v>
@@ -1213,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>89</v>
@@ -1225,7 +1719,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>70</v>
@@ -1238,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>96</v>
@@ -1252,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>70</v>
@@ -1267,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>89</v>
@@ -1282,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>70</v>
@@ -1297,10 +1791,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1312,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2">
         <v>89</v>
@@ -1327,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1339,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1351,7 +1845,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -1362,7 +1856,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G15"/>
       <c r="I15"/>
@@ -1372,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G16"/>
       <c r="I16"/>
@@ -1382,7 +1876,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G17"/>
       <c r="I17"/>
@@ -1392,7 +1886,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I18"/>
     </row>
@@ -1401,13 +1895,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2">
         <v>512</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1418,7 +1912,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -1429,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -1441,7 +1935,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -1453,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -1465,7 +1959,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -1477,7 +1971,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -1489,7 +1983,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -1501,7 +1995,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -1512,7 +2006,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -1523,7 +2017,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -1533,7 +2027,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -1544,7 +2038,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -1555,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -1563,7 +2057,7 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -1571,7 +2065,7 @@
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>

--- a/private/games/steamGames.xlsx
+++ b/private/games/steamGames.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24220" windowHeight="13540"/>
+    <workbookView windowWidth="19090" windowHeight="9740" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
+    <sheet name="Steam" sheetId="2" r:id="rId1"/>
     <sheet name="DCS" sheetId="1" r:id="rId2"/>
+    <sheet name="CMO" sheetId="3" r:id="rId3"/>
+    <sheet name="NS" sheetId="4" r:id="rId4"/>
+    <sheet name="X" sheetId="5" r:id="rId5"/>
+    <sheet name="PS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t>目錄</t>
   </si>
@@ -53,6 +57,9 @@
     <t>太空</t>
   </si>
   <si>
+    <t>✓✓✔✔</t>
+  </si>
+  <si>
     <t>Kerbal Space Program 2</t>
   </si>
   <si>
@@ -83,7 +90,7 @@
     <t>ACE COMBAT™ 7: SKIES UNKNOWN</t>
   </si>
   <si>
-    <t>雙人成行</t>
+    <t>雙人成行  It Takes Two Friend's</t>
   </si>
   <si>
     <t>Counter-Strike: Global Offensive</t>
@@ -140,6 +147,12 @@
     <t>American Truck Simulator</t>
   </si>
   <si>
+    <t>Command:Modern Air Naval Operation</t>
+  </si>
+  <si>
+    <t>Command:Modern Operation</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -255,6 +268,114 @@
   </si>
   <si>
     <t>MiG-29</t>
+  </si>
+  <si>
+    <t>Chains of War</t>
+  </si>
+  <si>
+    <t>戰爭鏈</t>
+  </si>
+  <si>
+    <t>The Silent Service</t>
+  </si>
+  <si>
+    <t>沉默快遞</t>
+  </si>
+  <si>
+    <t>Desert Storm</t>
+  </si>
+  <si>
+    <t>沙漠風暴</t>
+  </si>
+  <si>
+    <t>Shifting Sands</t>
+  </si>
+  <si>
+    <t>Northern Inferno</t>
+  </si>
+  <si>
+    <t>Red Tide</t>
+  </si>
+  <si>
+    <t>Kashmir Fire</t>
+  </si>
+  <si>
+    <t>载体</t>
+  </si>
+  <si>
+    <t>定价jp</t>
+  </si>
+  <si>
+    <t>定价us</t>
+  </si>
+  <si>
+    <t>定价hk</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>NSwitch</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>s350</t>
+  </si>
+  <si>
+    <t>健</t>
+  </si>
+  <si>
+    <t>卡带</t>
+  </si>
+  <si>
+    <t>s50</t>
+  </si>
+  <si>
+    <t>19.10.18</t>
+  </si>
+  <si>
+    <t>拳击2</t>
+  </si>
+  <si>
+    <t>20.12.3</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>s30</t>
+  </si>
+  <si>
+    <t>22.4.29</t>
+  </si>
+  <si>
+    <t>20.6.5</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>马里奥网球</t>
+  </si>
+  <si>
+    <t>动森g</t>
+  </si>
+  <si>
+    <t>20.3.20</t>
+  </si>
+  <si>
+    <t>NBA 2K22</t>
+  </si>
+  <si>
+    <t>46G TF</t>
+  </si>
+  <si>
+    <t>定价</t>
   </si>
 </sst>
 </file>
@@ -262,12 +383,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,10 +397,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -295,18 +417,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,39 +443,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,15 +466,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -386,17 +506,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,35 +553,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +582,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,187 +600,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,30 +823,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -736,26 +861,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,173 +898,191 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
@@ -949,12 +1094,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1259,385 +1404,420 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="3"/>
-    <col min="2" max="2" width="34.2727272727273" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.72727272727273" style="3"/>
+    <col min="1" max="1" width="8.72727272727273" style="4"/>
+    <col min="2" max="2" width="39.6363636363636" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.72727272727273" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="9">
         <v>20.5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="9">
         <v>78</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" ht="15.5" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="9">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="5" ht="15.5" spans="1:7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9">
         <v>100</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9">
+        <v>158</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="15.5" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="15.5" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9">
+        <v>55</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9">
+        <v>65.6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9">
+        <v>99</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9">
+        <v>66.5</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>40.6</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9">
+        <v>169</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9">
+        <v>134</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="9">
+        <v>298</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="9">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9">
+        <v>54</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="9">
+        <v>25</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
-        <v>158</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5">
-        <v>55</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5">
-        <v>65.6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5">
-        <v>99</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5">
-        <v>66.5</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5">
-        <v>40.6</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5">
-        <v>99</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="5">
-        <v>169</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5">
-        <v>134</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="5">
-        <v>298</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5">
+    </row>
+    <row r="28" ht="15.5" spans="2:7">
+      <c r="B28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="5">
-        <v>54</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="5">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="C28" s="4">
+        <v>211</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="7:7">
+      <c r="G29" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:F25">
@@ -1654,87 +1834,87 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.3636363636364" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.09090909090909" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6" style="6" customWidth="1"/>
+    <col min="2" max="2" width="51.5454545454545" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.3636363636364" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.09090909090909" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
+      <c r="E1" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7">
         <v>89</v>
       </c>
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7">
         <v>70</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="7">
         <v>96</v>
       </c>
       <c r="G6"/>
@@ -1742,13 +1922,13 @@
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7">
         <v>70</v>
       </c>
       <c r="G7"/>
@@ -1757,13 +1937,13 @@
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="7">
         <v>89</v>
       </c>
       <c r="G8"/>
@@ -1772,13 +1952,13 @@
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="7">
         <v>70</v>
       </c>
       <c r="G9"/>
@@ -1787,14 +1967,14 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1802,13 +1982,13 @@
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7">
         <v>89</v>
       </c>
       <c r="G11"/>
@@ -1817,11 +1997,11 @@
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>56</v>
+      <c r="B12" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1829,11 +2009,11 @@
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
+      <c r="B13" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1841,89 +2021,89 @@
       <c r="J13"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
+      <c r="B15" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="G15"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="G16"/>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
+      <c r="B17" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="G17"/>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
+      <c r="B18" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="7">
         <v>512</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>64</v>
+      <c r="E19" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>65</v>
+      <c r="B20" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>66</v>
+      <c r="B21" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -1931,11 +2111,11 @@
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
+      <c r="B22" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -1943,11 +2123,11 @@
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>68</v>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -1955,11 +2135,11 @@
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
+      <c r="B24" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -1967,11 +2147,11 @@
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>70</v>
+      <c r="B25" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -1979,11 +2159,11 @@
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>71</v>
+      <c r="B26" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -1991,81 +2171,81 @@
       <c r="J26"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>72</v>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>73</v>
+      <c r="B28" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>74</v>
+      <c r="B29" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>75</v>
+      <c r="B30" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="K30"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>76</v>
+      <c r="B31" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="K31"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>77</v>
+      <c r="B32" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="K32"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="2" t="s">
-        <v>78</v>
+      <c r="B33" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="K33"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="2" t="s">
-        <v>79</v>
+      <c r="B34" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -2097,4 +2277,416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="6.27272727272727" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.27272727272727" style="4" customWidth="1"/>
+    <col min="4" max="5" width="10.3636363636364" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="35.0909090909091" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="4">
+        <v>70</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="16384" width="8.72727272727273" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2239</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2">
+        <v>37980</v>
+      </c>
+      <c r="E2" s="2">
+        <v>350</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2680</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3">
+        <v>436</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8778</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2">
+        <v>360</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="2">
+        <v>250</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4300</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
+        <v>250</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4378</v>
+      </c>
+      <c r="E7" s="2">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6578</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1">
+        <v>700</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="8.72727272727273" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="8.72727272727273" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>